--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,16 +40,13 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>die</t>
   </si>
   <si>
     <t>sc</t>
@@ -61,94 +58,103 @@
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>increase</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,7 +526,7 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -578,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.726027397260274</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -596,19 +602,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -620,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -628,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.7363013698630136</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -646,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -670,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -678,7 +684,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5882352941176471</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -696,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -720,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -728,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5277777777777778</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -746,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -770,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -778,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3862433862433862</v>
+        <v>0.2945736434108527</v>
       </c>
       <c r="C7">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="D7">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -796,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>116</v>
+        <v>364</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.7963446475195822</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>305</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>305</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -820,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -828,13 +834,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3197674418604651</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C8">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -846,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>351</v>
+        <v>121</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -870,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -878,13 +884,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1677852348993289</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -896,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>124</v>
+        <v>231</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K9">
-        <v>0.8328981723237598</v>
+        <v>0.78125</v>
       </c>
       <c r="L9">
-        <v>319</v>
+        <v>100</v>
       </c>
       <c r="M9">
-        <v>319</v>
+        <v>100</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -920,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -928,13 +934,13 @@
         <v>23</v>
       </c>
       <c r="K10">
-        <v>0.8113207547169812</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L10">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="M10">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -946,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -954,13 +960,13 @@
         <v>24</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -972,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -980,13 +986,13 @@
         <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -998,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1006,13 +1012,13 @@
         <v>26</v>
       </c>
       <c r="K13">
-        <v>0.75625</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L13">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="M13">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1024,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1035,10 +1041,10 @@
         <v>0.75</v>
       </c>
       <c r="L14">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1050,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1058,13 +1064,13 @@
         <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7323943661971831</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="M15">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1076,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1084,13 +1090,13 @@
         <v>29</v>
       </c>
       <c r="K16">
-        <v>0.7265625</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1102,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1110,13 +1116,13 @@
         <v>30</v>
       </c>
       <c r="K17">
-        <v>0.7222222222222222</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1128,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1136,13 +1142,13 @@
         <v>31</v>
       </c>
       <c r="K18">
-        <v>0.7021276595744681</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1154,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1162,13 +1168,13 @@
         <v>32</v>
       </c>
       <c r="K19">
-        <v>0.696969696969697</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1180,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1188,13 +1194,13 @@
         <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1206,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1214,13 +1220,13 @@
         <v>34</v>
       </c>
       <c r="K21">
-        <v>0.66</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1232,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1292,13 +1298,13 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6235294117647059</v>
+        <v>0.625</v>
       </c>
       <c r="L24">
-        <v>212</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>212</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1310,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>128</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1318,13 +1324,13 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5941422594142259</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="M25">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1336,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>97</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1344,13 +1350,13 @@
         <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5627118644067797</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1362,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>129</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1370,13 +1376,13 @@
         <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5538461538461539</v>
+        <v>0.5899581589958159</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1388,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1396,13 +1402,13 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5531914893617021</v>
+        <v>0.5796610169491525</v>
       </c>
       <c r="L28">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="M28">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1414,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>42</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1422,13 +1428,13 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5142857142857142</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1440,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1448,13 +1454,13 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.475</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1466,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1474,13 +1480,13 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.449438202247191</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L31">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1492,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1500,25 +1506,77 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>0.2435897435897436</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L32">
+        <v>39</v>
+      </c>
+      <c r="M32">
+        <v>39</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33">
+        <v>0.3725490196078431</v>
+      </c>
+      <c r="L33">
         <v>19</v>
       </c>
-      <c r="M32">
+      <c r="M33">
         <v>19</v>
       </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>59</v>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34">
+        <v>0.2692307692307692</v>
+      </c>
+      <c r="L34">
+        <v>21</v>
+      </c>
+      <c r="M34">
+        <v>21</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
